--- a/data/download/Pennsylvania Standing Prison Population by Minimum Sentence Length, 1980-2015.xlsx
+++ b/data/download/Pennsylvania Standing Prison Population by Minimum Sentence Length, 1980-2015.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17329"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17726"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\EPelletier\Box Sync\09126 OSF Long Sentences\Data\Final\DOWNLOADABLE DATA FILES\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\LCourtney\Box Sync\09126 OSF Long Sentences\Website Content\Policy section\Final Excel sheets for website\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9672"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9675"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Pennsylvania Standing Prison Population by Minimum Sentence Length, 1980-2015</t>
   </si>
@@ -36,6 +36,15 @@
   </si>
   <si>
     <t>Life</t>
+  </si>
+  <si>
+    <t>http://www.cor.pa.gov/About%20Us/Statistics/Pages/Reports.aspx#.WU0k9evyuUk</t>
+  </si>
+  <si>
+    <t>Source:</t>
+  </si>
+  <si>
+    <t>Pennsylvania Department of Corrections: Annual Statistical Reports (Table 23)</t>
   </si>
 </sst>
 </file>
@@ -398,18 +407,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D38"/>
+  <dimension ref="A1:D42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="P37" sqref="P37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="4" width="11.109375" customWidth="1"/>
+    <col min="2" max="4" width="11.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -417,7 +426,7 @@
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
       <c r="B2" s="3" t="s">
         <v>1</v>
@@ -429,7 +438,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1980</v>
       </c>
@@ -443,7 +452,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>1981</v>
       </c>
@@ -457,7 +466,7 @@
         <v>962</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>1982</v>
       </c>
@@ -471,7 +480,7 @@
         <v>1074</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>1983</v>
       </c>
@@ -485,7 +494,7 @@
         <v>1195</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>1984</v>
       </c>
@@ -499,7 +508,7 @@
         <v>1311</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>1985</v>
       </c>
@@ -513,7 +522,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>1986</v>
       </c>
@@ -527,7 +536,7 @@
         <v>1544</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>1987</v>
       </c>
@@ -541,7 +550,7 @@
         <v>1674</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>1988</v>
       </c>
@@ -555,7 +564,7 @@
         <v>1858</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>1989</v>
       </c>
@@ -569,7 +578,7 @@
         <v>1964</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>1990</v>
       </c>
@@ -583,7 +592,7 @@
         <v>2139</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>1991</v>
       </c>
@@ -597,7 +606,7 @@
         <v>2291</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>1992</v>
       </c>
@@ -611,7 +620,7 @@
         <v>2467</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>1993</v>
       </c>
@@ -625,7 +634,7 @@
         <v>2614</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>1994</v>
       </c>
@@ -639,7 +648,7 @@
         <v>2806</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>1995</v>
       </c>
@@ -653,7 +662,7 @@
         <v>2973</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>1996</v>
       </c>
@@ -667,7 +676,7 @@
         <v>3128</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>1997</v>
       </c>
@@ -681,7 +690,7 @@
         <v>3283</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>1998</v>
       </c>
@@ -695,7 +704,7 @@
         <v>3495</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>1999</v>
       </c>
@@ -709,7 +718,7 @@
         <v>3616</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>2000</v>
       </c>
@@ -723,7 +732,7 @@
         <v>3627</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>2001</v>
       </c>
@@ -737,7 +746,7 @@
         <v>3752</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>2002</v>
       </c>
@@ -751,7 +760,7 @@
         <v>3859</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>2003</v>
       </c>
@@ -765,7 +774,7 @@
         <v>3984</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>2004</v>
       </c>
@@ -779,7 +788,7 @@
         <v>4091</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>2005</v>
       </c>
@@ -793,7 +802,7 @@
         <v>4216</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>2006</v>
       </c>
@@ -807,7 +816,7 @@
         <v>4340</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>2007</v>
       </c>
@@ -821,7 +830,7 @@
         <v>4451</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>2008</v>
       </c>
@@ -835,7 +844,7 @@
         <v>4574</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>2009</v>
       </c>
@@ -849,7 +858,7 @@
         <v>4706</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>2010</v>
       </c>
@@ -863,7 +872,7 @@
         <v>4829</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>2011</v>
       </c>
@@ -877,7 +886,7 @@
         <v>4971</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>2012</v>
       </c>
@@ -891,7 +900,7 @@
         <v>5121</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>2013</v>
       </c>
@@ -905,7 +914,7 @@
         <v>5254</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>2014</v>
       </c>
@@ -919,7 +928,7 @@
         <v>5352</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>2015</v>
       </c>
@@ -933,7 +942,23 @@
         <v>5431</v>
       </c>
     </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>